--- a/biology/Botanique/Zotovia/Zotovia.xlsx
+++ b/biology/Botanique/Zotovia/Zotovia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zotovia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, endémique de Nouvelle-Zélande, qui comprend trois espèces.
-Ce sont des plantes herbacées vivaces, rhizomateuses, à feuilles étroites, poussant en touffes serrées, compactes, comme des coussins. Les inflorescences sont des panicules contractées, parfois réduites à un racème[2].
-Ce genre a été créé en 1998 par les botanistes néo-zélandais, Elizabeth Edgar et Henry Eamonn Connor, pour remplacer le nom illégitime, Petriella Zotov non Curzi, et regrouper trois espèces alpines détachées du genre Ehrharta[3].
-Le nom générique « Zotovia » est un hommage à Victor Dmitrievich Zotov (1908–1977), botaniste russe né à Vladivostok qui émigra en Nouvelle-Zélande en 1924[4].
+Ce sont des plantes herbacées vivaces, rhizomateuses, à feuilles étroites, poussant en touffes serrées, compactes, comme des coussins. Les inflorescences sont des panicules contractées, parfois réduites à un racème.
+Ce genre a été créé en 1998 par les botanistes néo-zélandais, Elizabeth Edgar et Henry Eamonn Connor, pour remplacer le nom illégitime, Petriella Zotov non Curzi, et regrouper trois espèces alpines détachées du genre Ehrharta.
+Le nom générique « Zotovia » est un hommage à Victor Dmitrievich Zotov (1908–1977), botaniste russe né à Vladivostok qui émigra en Nouvelle-Zélande en 1924.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 janvier 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 janvier 2017) :
 Zotovia acicularis Edgar &amp; Connor (1998)
 Zotovia colensoi (Hook.f.) Edgar &amp; Connor (1998)
 Zotovia thomsonii (Petrie) Edgar &amp; Connor (1998)</t>
